--- a/[2] Analyzer Results/RESULTS_MTT_MERGED.xlsx
+++ b/[2] Analyzer Results/RESULTS_MTT_MERGED.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K325"/>
+  <dimension ref="A1:J325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,6 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -527,10 +522,7 @@
         <v>8.315999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>25.904</v>
-      </c>
-      <c r="K2" t="n">
-        <v>894.338</v>
+        <v>601.044</v>
       </c>
     </row>
     <row r="3">
@@ -570,10 +562,7 @@
         <v>7.555</v>
       </c>
       <c r="J3" t="n">
-        <v>21.035</v>
-      </c>
-      <c r="K3" t="n">
-        <v>921.735</v>
+        <v>576.6624999999999</v>
       </c>
     </row>
     <row r="4">
@@ -613,10 +602,7 @@
         <v>5.305</v>
       </c>
       <c r="J4" t="n">
-        <v>15.075</v>
-      </c>
-      <c r="K4" t="n">
-        <v>495.615</v>
+        <v>320.755</v>
       </c>
     </row>
     <row r="5">
@@ -656,10 +642,7 @@
         <v>8.324000000000002</v>
       </c>
       <c r="J5" t="n">
-        <v>25.046</v>
-      </c>
-      <c r="K5" t="n">
-        <v>949.15</v>
+        <v>623.952</v>
       </c>
     </row>
     <row r="6">
@@ -699,10 +682,7 @@
         <v>5.962499999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>25.29</v>
-      </c>
-      <c r="K6" t="n">
-        <v>757.45</v>
+        <v>484.6775</v>
       </c>
     </row>
     <row r="7">
@@ -742,10 +722,7 @@
         <v>7.508</v>
       </c>
       <c r="J7" t="n">
-        <v>26.288</v>
-      </c>
-      <c r="K7" t="n">
-        <v>909.7459999999999</v>
+        <v>587.4979999999999</v>
       </c>
     </row>
     <row r="8">
@@ -785,10 +762,7 @@
         <v>8.516</v>
       </c>
       <c r="J8" t="n">
-        <v>28</v>
-      </c>
-      <c r="K8" t="n">
-        <v>988.6479999999999</v>
+        <v>659.1899999999999</v>
       </c>
     </row>
     <row r="9">
@@ -828,10 +802,7 @@
         <v>8.373999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>26.912</v>
-      </c>
-      <c r="K9" t="n">
-        <v>932.4739999999999</v>
+        <v>602.424</v>
       </c>
     </row>
     <row r="10">
@@ -871,10 +842,7 @@
         <v>5.864</v>
       </c>
       <c r="J10" t="n">
-        <v>17.108</v>
-      </c>
-      <c r="K10" t="n">
-        <v>634.5179999999999</v>
+        <v>395.092</v>
       </c>
     </row>
     <row r="11">
@@ -914,10 +882,7 @@
         <v>5.903333333333333</v>
       </c>
       <c r="J11" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="K11" t="n">
-        <v>680.6866666666666</v>
+        <v>407.14</v>
       </c>
     </row>
     <row r="12">
@@ -957,10 +922,7 @@
         <v>6.07</v>
       </c>
       <c r="J12" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="K12" t="n">
-        <v>615.5966666666667</v>
+        <v>411.77</v>
       </c>
     </row>
     <row r="13">
@@ -1000,10 +962,7 @@
         <v>6.708000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>19.108</v>
-      </c>
-      <c r="K13" t="n">
-        <v>712.0779999999999</v>
+        <v>447.176</v>
       </c>
     </row>
     <row r="14">
@@ -1043,10 +1002,7 @@
         <v>6.029999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>15.068</v>
-      </c>
-      <c r="K14" t="n">
-        <v>654.098</v>
+        <v>399.686</v>
       </c>
     </row>
     <row r="15">
@@ -1086,10 +1042,7 @@
         <v>5.708</v>
       </c>
       <c r="J15" t="n">
-        <v>19.468</v>
-      </c>
-      <c r="K15" t="n">
-        <v>723.05</v>
+        <v>458.77</v>
       </c>
     </row>
     <row r="16">
@@ -1129,10 +1082,7 @@
         <v>5.7875</v>
       </c>
       <c r="J16" t="n">
-        <v>20.9925</v>
-      </c>
-      <c r="K16" t="n">
-        <v>692.0549999999999</v>
+        <v>398.8475</v>
       </c>
     </row>
     <row r="17">
@@ -1172,10 +1122,7 @@
         <v>5.684</v>
       </c>
       <c r="J17" t="n">
-        <v>19.818</v>
-      </c>
-      <c r="K17" t="n">
-        <v>707.8920000000001</v>
+        <v>449.322</v>
       </c>
     </row>
     <row r="18">
@@ -1215,10 +1162,7 @@
         <v>5.894</v>
       </c>
       <c r="J18" t="n">
-        <v>19.424</v>
-      </c>
-      <c r="K18" t="n">
-        <v>669.4040000000001</v>
+        <v>434.428</v>
       </c>
     </row>
     <row r="19">
@@ -1258,10 +1202,7 @@
         <v>7.59</v>
       </c>
       <c r="J19" t="n">
-        <v>20.9975</v>
-      </c>
-      <c r="K19" t="n">
-        <v>956.08</v>
+        <v>611.125</v>
       </c>
     </row>
     <row r="20">
@@ -1301,10 +1242,7 @@
         <v>25.156</v>
       </c>
       <c r="J20" t="n">
-        <v>50.412</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3835.214</v>
+        <v>2467.682</v>
       </c>
     </row>
     <row r="21">
@@ -1344,10 +1282,7 @@
         <v>22.135</v>
       </c>
       <c r="J21" t="n">
-        <v>46.3275</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3267.96</v>
+        <v>2158.61</v>
       </c>
     </row>
     <row r="22">
@@ -1387,10 +1322,7 @@
         <v>16.726</v>
       </c>
       <c r="J22" t="n">
-        <v>28.658</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1669.862</v>
+        <v>1064.096</v>
       </c>
     </row>
     <row r="23">
@@ -1430,10 +1362,7 @@
         <v>23.178</v>
       </c>
       <c r="J23" t="n">
-        <v>38.518</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2978.454</v>
+        <v>1847.874</v>
       </c>
     </row>
     <row r="24">
@@ -1473,10 +1402,7 @@
         <v>24.342</v>
       </c>
       <c r="J24" t="n">
-        <v>41.198</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3402.73</v>
+        <v>2147.888</v>
       </c>
     </row>
     <row r="25">
@@ -1516,10 +1442,7 @@
         <v>23.132</v>
       </c>
       <c r="J25" t="n">
-        <v>50.75</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3442.354</v>
+        <v>2120.346</v>
       </c>
     </row>
     <row r="26">
@@ -1559,10 +1482,7 @@
         <v>23.70666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>32.04333333333333</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2673.886666666667</v>
+        <v>1717.213333333333</v>
       </c>
     </row>
     <row r="27">
@@ -1602,10 +1522,7 @@
         <v>21.128</v>
       </c>
       <c r="J27" t="n">
-        <v>50.874</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3043.126</v>
+        <v>1920.124</v>
       </c>
     </row>
     <row r="28">
@@ -1645,10 +1562,7 @@
         <v>21.086</v>
       </c>
       <c r="J28" t="n">
-        <v>43.55800000000001</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2979.206</v>
+        <v>1918.632</v>
       </c>
     </row>
     <row r="29">
@@ -1688,10 +1602,7 @@
         <v>22.235</v>
       </c>
       <c r="J29" t="n">
-        <v>49.0275</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3144.5925</v>
+        <v>2025.74</v>
       </c>
     </row>
     <row r="30">
@@ -1731,10 +1642,7 @@
         <v>19.764</v>
       </c>
       <c r="J30" t="n">
-        <v>46.188</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2745.116</v>
+        <v>1749.078</v>
       </c>
     </row>
     <row r="31">
@@ -1774,10 +1682,7 @@
         <v>21.865</v>
       </c>
       <c r="J31" t="n">
-        <v>43.74</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3125.91</v>
+        <v>1997.0225</v>
       </c>
     </row>
     <row r="32">
@@ -1817,10 +1722,7 @@
         <v>21.4075</v>
       </c>
       <c r="J32" t="n">
-        <v>52.855</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3258.725</v>
+        <v>2111.1925</v>
       </c>
     </row>
     <row r="33">
@@ -1860,10 +1762,7 @@
         <v>21.734</v>
       </c>
       <c r="J33" t="n">
-        <v>45.21599999999999</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3187.514</v>
+        <v>2027.814</v>
       </c>
     </row>
     <row r="34">
@@ -1903,10 +1802,7 @@
         <v>21.655</v>
       </c>
       <c r="J34" t="n">
-        <v>38.0925</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2748.21</v>
+        <v>1729.975</v>
       </c>
     </row>
     <row r="35">
@@ -1946,10 +1842,7 @@
         <v>20.522</v>
       </c>
       <c r="J35" t="n">
-        <v>44.432</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2946.992</v>
+        <v>1952.294</v>
       </c>
     </row>
     <row r="36">
@@ -1989,10 +1882,7 @@
         <v>22.3825</v>
       </c>
       <c r="J36" t="n">
-        <v>45.9875</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3152.4375</v>
+        <v>2011.1575</v>
       </c>
     </row>
     <row r="37">
@@ -2032,10 +1922,7 @@
         <v>20.055</v>
       </c>
       <c r="J37" t="n">
-        <v>43.0775</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2896.76</v>
+        <v>1836.34</v>
       </c>
     </row>
     <row r="38">
@@ -2075,10 +1962,7 @@
         <v>18.028</v>
       </c>
       <c r="J38" t="n">
-        <v>34.21999999999999</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2234.216</v>
+        <v>1474.252</v>
       </c>
     </row>
     <row r="39">
@@ -2118,10 +2002,7 @@
         <v>17.98</v>
       </c>
       <c r="J39" t="n">
-        <v>41.8825</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2571.045</v>
+        <v>1605.575</v>
       </c>
     </row>
     <row r="40">
@@ -2161,10 +2042,7 @@
         <v>9.832000000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>20.084</v>
-      </c>
-      <c r="K40" t="n">
-        <v>981.1640000000001</v>
+        <v>623.11</v>
       </c>
     </row>
     <row r="41">
@@ -2204,10 +2082,7 @@
         <v>17.755</v>
       </c>
       <c r="J41" t="n">
-        <v>34.8725</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2130.8</v>
+        <v>1370.6275</v>
       </c>
     </row>
     <row r="42">
@@ -2247,10 +2122,7 @@
         <v>18.412</v>
       </c>
       <c r="J42" t="n">
-        <v>40.44600000000001</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2612.49</v>
+        <v>1653.238</v>
       </c>
     </row>
     <row r="43">
@@ -2290,10 +2162,7 @@
         <v>16.042</v>
       </c>
       <c r="J43" t="n">
-        <v>29.91</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1886.63</v>
+        <v>1195.67</v>
       </c>
     </row>
     <row r="44">
@@ -2333,10 +2202,7 @@
         <v>17.16</v>
       </c>
       <c r="J44" t="n">
-        <v>39.10333333333333</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2190.696666666667</v>
+        <v>1400.056666666667</v>
       </c>
     </row>
     <row r="45">
@@ -2376,10 +2242,7 @@
         <v>16.982</v>
       </c>
       <c r="J45" t="n">
-        <v>31.968</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1842.546</v>
+        <v>1157.46</v>
       </c>
     </row>
     <row r="46">
@@ -2419,10 +2282,7 @@
         <v>15.324</v>
       </c>
       <c r="J46" t="n">
-        <v>30.858</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1750.924</v>
+        <v>1142.654</v>
       </c>
     </row>
     <row r="47">
@@ -2462,10 +2322,7 @@
         <v>15.93</v>
       </c>
       <c r="J47" t="n">
-        <v>34.522</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2047.796</v>
+        <v>1290.776</v>
       </c>
     </row>
     <row r="48">
@@ -2505,10 +2362,7 @@
         <v>11.85</v>
       </c>
       <c r="J48" t="n">
-        <v>32.598</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1427.422</v>
+        <v>900.476</v>
       </c>
     </row>
     <row r="49">
@@ -2548,10 +2402,7 @@
         <v>12.805</v>
       </c>
       <c r="J49" t="n">
-        <v>27.4125</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1686.035</v>
+        <v>1057.5125</v>
       </c>
     </row>
     <row r="50">
@@ -2591,10 +2442,7 @@
         <v>17.555</v>
       </c>
       <c r="J50" t="n">
-        <v>40.17</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2172.8875</v>
+        <v>1418.43</v>
       </c>
     </row>
     <row r="51">
@@ -2634,10 +2482,7 @@
         <v>15.192</v>
       </c>
       <c r="J51" t="n">
-        <v>33.38200000000001</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1844.016</v>
+        <v>1203.372</v>
       </c>
     </row>
     <row r="52">
@@ -2677,10 +2522,7 @@
         <v>14.7</v>
       </c>
       <c r="J52" t="n">
-        <v>42.8175</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2085.685</v>
+        <v>1350.7425</v>
       </c>
     </row>
     <row r="53">
@@ -2720,10 +2562,7 @@
         <v>10.85</v>
       </c>
       <c r="J53" t="n">
-        <v>25.54666666666667</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1156.84</v>
+        <v>703.5066666666667</v>
       </c>
     </row>
     <row r="54">
@@ -2763,10 +2602,7 @@
         <v>13.106</v>
       </c>
       <c r="J54" t="n">
-        <v>28.26</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1573.984</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="55">
@@ -2806,10 +2642,7 @@
         <v>15.2125</v>
       </c>
       <c r="J55" t="n">
-        <v>25.22</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1795.775</v>
+        <v>1155.5075</v>
       </c>
     </row>
     <row r="56">
@@ -2849,10 +2682,7 @@
         <v>11.452</v>
       </c>
       <c r="J56" t="n">
-        <v>23.988</v>
-      </c>
-      <c r="K56" t="n">
-        <v>1217.942</v>
+        <v>759.8580000000001</v>
       </c>
     </row>
     <row r="57">
@@ -2892,10 +2722,7 @@
         <v>11.216</v>
       </c>
       <c r="J57" t="n">
-        <v>28.632</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1282.77</v>
+        <v>819.7180000000001</v>
       </c>
     </row>
     <row r="58">
@@ -2935,10 +2762,7 @@
         <v>6.225</v>
       </c>
       <c r="J58" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="K58" t="n">
-        <v>556.235</v>
+        <v>371.9</v>
       </c>
     </row>
     <row r="59">
@@ -2978,10 +2802,7 @@
         <v>10.0125</v>
       </c>
       <c r="J59" t="n">
-        <v>28.8425</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1163.54</v>
+        <v>808.5</v>
       </c>
     </row>
     <row r="60">
@@ -3021,10 +2842,7 @@
         <v>9.82</v>
       </c>
       <c r="J60" t="n">
-        <v>21.655</v>
-      </c>
-      <c r="K60" t="n">
-        <v>1064.1725</v>
+        <v>644.425</v>
       </c>
     </row>
     <row r="61">
@@ -3064,10 +2882,7 @@
         <v>10.274</v>
       </c>
       <c r="J61" t="n">
-        <v>22.446</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1066.952</v>
+        <v>689.26</v>
       </c>
     </row>
     <row r="62">
@@ -3107,10 +2922,7 @@
         <v>10.01</v>
       </c>
       <c r="J62" t="n">
-        <v>26.275</v>
-      </c>
-      <c r="K62" t="n">
-        <v>1106.7125</v>
+        <v>709.5700000000002</v>
       </c>
     </row>
     <row r="63">
@@ -3150,10 +2962,7 @@
         <v>9.888</v>
       </c>
       <c r="J63" t="n">
-        <v>22.138</v>
-      </c>
-      <c r="K63" t="n">
-        <v>1019.038</v>
+        <v>663.018</v>
       </c>
     </row>
     <row r="64">
@@ -3193,10 +3002,7 @@
         <v>9.754</v>
       </c>
       <c r="J64" t="n">
-        <v>26.266</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1058.97</v>
+        <v>674.824</v>
       </c>
     </row>
     <row r="65">
@@ -3236,10 +3042,7 @@
         <v>9.780000000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>22.536</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1043.656</v>
+        <v>669.0020000000001</v>
       </c>
     </row>
     <row r="66">
@@ -3279,10 +3082,7 @@
         <v>9.35</v>
       </c>
       <c r="J66" t="n">
-        <v>23.236</v>
-      </c>
-      <c r="K66" t="n">
-        <v>1078.33</v>
+        <v>664.894</v>
       </c>
     </row>
     <row r="67">
@@ -3322,10 +3122,7 @@
         <v>8.712499999999999</v>
       </c>
       <c r="J67" t="n">
-        <v>25.3475</v>
-      </c>
-      <c r="K67" t="n">
-        <v>960.3600000000001</v>
+        <v>632.0475</v>
       </c>
     </row>
     <row r="68">
@@ -3365,10 +3162,7 @@
         <v>8.843999999999999</v>
       </c>
       <c r="J68" t="n">
-        <v>21.446</v>
-      </c>
-      <c r="K68" t="n">
-        <v>916.1039999999999</v>
+        <v>577.4040000000001</v>
       </c>
     </row>
     <row r="69">
@@ -3408,10 +3202,7 @@
         <v>8.956</v>
       </c>
       <c r="J69" t="n">
-        <v>22.642</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1021.162</v>
+        <v>645.2079999999999</v>
       </c>
     </row>
     <row r="70">
@@ -3451,10 +3242,7 @@
         <v>8.792</v>
       </c>
       <c r="J70" t="n">
-        <v>27.228</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1039.95</v>
+        <v>672.794</v>
       </c>
     </row>
     <row r="71">
@@ -3494,10 +3282,7 @@
         <v>7.362500000000001</v>
       </c>
       <c r="J71" t="n">
-        <v>20.565</v>
-      </c>
-      <c r="K71" t="n">
-        <v>860.735</v>
+        <v>519.7525000000001</v>
       </c>
     </row>
     <row r="72">
@@ -3537,10 +3322,7 @@
         <v>10.0075</v>
       </c>
       <c r="J72" t="n">
-        <v>28.4925</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1078.51</v>
+        <v>664.8199999999999</v>
       </c>
     </row>
     <row r="73">
@@ -3580,10 +3362,7 @@
         <v>8.6325</v>
       </c>
       <c r="J73" t="n">
-        <v>22.35</v>
-      </c>
-      <c r="K73" t="n">
-        <v>906.6075</v>
+        <v>604.4749999999999</v>
       </c>
     </row>
     <row r="74">
@@ -3623,10 +3402,7 @@
         <v>10.368</v>
       </c>
       <c r="J74" t="n">
-        <v>26.156</v>
-      </c>
-      <c r="K74" t="n">
-        <v>1100.338</v>
+        <v>700.138</v>
       </c>
     </row>
     <row r="75">
@@ -3666,10 +3442,7 @@
         <v>10.078</v>
       </c>
       <c r="J75" t="n">
-        <v>27.504</v>
-      </c>
-      <c r="K75" t="n">
-        <v>1114.352</v>
+        <v>713.948</v>
       </c>
     </row>
     <row r="76">
@@ -3709,10 +3482,7 @@
         <v>5.77</v>
       </c>
       <c r="J76" t="n">
-        <v>18.14</v>
-      </c>
-      <c r="K76" t="n">
-        <v>646.5699999999999</v>
+        <v>400.026</v>
       </c>
     </row>
     <row r="77">
@@ -3752,10 +3522,7 @@
         <v>10.9025</v>
       </c>
       <c r="J77" t="n">
-        <v>29.795</v>
-      </c>
-      <c r="K77" t="n">
-        <v>1327.46</v>
+        <v>855.8825000000001</v>
       </c>
     </row>
     <row r="78">
@@ -3795,10 +3562,7 @@
         <v>9.673999999999999</v>
       </c>
       <c r="J78" t="n">
-        <v>26.078</v>
-      </c>
-      <c r="K78" t="n">
-        <v>1038.746</v>
+        <v>651.1020000000001</v>
       </c>
     </row>
     <row r="79">
@@ -3838,10 +3602,7 @@
         <v>9.469999999999999</v>
       </c>
       <c r="J79" t="n">
-        <v>30.0325</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1125.2225</v>
+        <v>714.89</v>
       </c>
     </row>
     <row r="80">
@@ -3881,10 +3642,7 @@
         <v>10.355</v>
       </c>
       <c r="J80" t="n">
-        <v>28.75</v>
-      </c>
-      <c r="K80" t="n">
-        <v>1178.38</v>
+        <v>734.5325</v>
       </c>
     </row>
     <row r="81">
@@ -3924,10 +3682,7 @@
         <v>9.994</v>
       </c>
       <c r="J81" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1197.45</v>
+        <v>746.2239999999999</v>
       </c>
     </row>
     <row r="82">
@@ -3967,10 +3722,7 @@
         <v>10.1975</v>
       </c>
       <c r="J82" t="n">
-        <v>27.09</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1178.295</v>
+        <v>740.39</v>
       </c>
     </row>
     <row r="83">
@@ -4010,10 +3762,7 @@
         <v>8.289999999999999</v>
       </c>
       <c r="J83" t="n">
-        <v>19.465</v>
-      </c>
-      <c r="K83" t="n">
-        <v>838.6</v>
+        <v>542.1949999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4053,10 +3802,7 @@
         <v>8.365</v>
       </c>
       <c r="J84" t="n">
-        <v>23.52</v>
-      </c>
-      <c r="K84" t="n">
-        <v>918.5625</v>
+        <v>595.2075</v>
       </c>
     </row>
     <row r="85">
@@ -4096,10 +3842,7 @@
         <v>7.394</v>
       </c>
       <c r="J85" t="n">
-        <v>29.56</v>
-      </c>
-      <c r="K85" t="n">
-        <v>870.1600000000001</v>
+        <v>535.454</v>
       </c>
     </row>
     <row r="86">
@@ -4139,10 +3882,7 @@
         <v>7.977999999999999</v>
       </c>
       <c r="J86" t="n">
-        <v>19.324</v>
-      </c>
-      <c r="K86" t="n">
-        <v>851.8620000000001</v>
+        <v>553.8620000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4182,10 +3922,7 @@
         <v>9.358000000000001</v>
       </c>
       <c r="J87" t="n">
-        <v>27.522</v>
-      </c>
-      <c r="K87" t="n">
-        <v>1130.4</v>
+        <v>707.204</v>
       </c>
     </row>
     <row r="88">
@@ -4225,10 +3962,7 @@
         <v>8.244</v>
       </c>
       <c r="J88" t="n">
-        <v>25.14</v>
-      </c>
-      <c r="K88" t="n">
-        <v>910.992</v>
+        <v>576.038</v>
       </c>
     </row>
     <row r="89">
@@ -4268,10 +4002,7 @@
         <v>9.556000000000001</v>
       </c>
       <c r="J89" t="n">
-        <v>28.814</v>
-      </c>
-      <c r="K89" t="n">
-        <v>1052.676</v>
+        <v>676.702</v>
       </c>
     </row>
     <row r="90">
@@ -4311,10 +4042,7 @@
         <v>8.837999999999999</v>
       </c>
       <c r="J90" t="n">
-        <v>19.914</v>
-      </c>
-      <c r="K90" t="n">
-        <v>956.0300000000001</v>
+        <v>607.484</v>
       </c>
     </row>
     <row r="91">
@@ -4354,10 +4082,7 @@
         <v>9.667999999999999</v>
       </c>
       <c r="J91" t="n">
-        <v>28.13</v>
-      </c>
-      <c r="K91" t="n">
-        <v>1057.338</v>
+        <v>662.9300000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4397,10 +4122,7 @@
         <v>19.21666666666667</v>
       </c>
       <c r="J92" t="n">
-        <v>31.96</v>
-      </c>
-      <c r="K92" t="n">
-        <v>2491.01</v>
+        <v>1619.476666666667</v>
       </c>
     </row>
     <row r="93">
@@ -4440,10 +4162,7 @@
         <v>25.004</v>
       </c>
       <c r="J93" t="n">
-        <v>43.754</v>
-      </c>
-      <c r="K93" t="n">
-        <v>3802.514</v>
+        <v>2393.186</v>
       </c>
     </row>
     <row r="94">
@@ -4483,10 +4202,7 @@
         <v>23.98</v>
       </c>
       <c r="J94" t="n">
-        <v>33.88333333333333</v>
-      </c>
-      <c r="K94" t="n">
-        <v>2795.076666666666</v>
+        <v>1991.75</v>
       </c>
     </row>
     <row r="95">
@@ -4526,10 +4242,7 @@
         <v>22.8025</v>
       </c>
       <c r="J95" t="n">
-        <v>39.655</v>
-      </c>
-      <c r="K95" t="n">
-        <v>3830.975</v>
+        <v>2325.2825</v>
       </c>
     </row>
     <row r="96">
@@ -4569,10 +4282,7 @@
         <v>25.4075</v>
       </c>
       <c r="J96" t="n">
-        <v>45.675</v>
-      </c>
-      <c r="K96" t="n">
-        <v>3709.78</v>
+        <v>2378.905</v>
       </c>
     </row>
     <row r="97">
@@ -4612,10 +4322,7 @@
         <v>16.902</v>
       </c>
       <c r="J97" t="n">
-        <v>24.548</v>
-      </c>
-      <c r="K97" t="n">
-        <v>2249.436</v>
+        <v>1368.004</v>
       </c>
     </row>
     <row r="98">
@@ -4655,10 +4362,7 @@
         <v>18.45333333333333</v>
       </c>
       <c r="J98" t="n">
-        <v>30.22</v>
-      </c>
-      <c r="K98" t="n">
-        <v>2829.096666666667</v>
+        <v>1820.03</v>
       </c>
     </row>
     <row r="99">
@@ -4698,10 +4402,7 @@
         <v>20.378</v>
       </c>
       <c r="J99" t="n">
-        <v>40.352</v>
-      </c>
-      <c r="K99" t="n">
-        <v>2957.61</v>
+        <v>1890.73</v>
       </c>
     </row>
     <row r="100">
@@ -4741,10 +4442,7 @@
         <v>12.274</v>
       </c>
       <c r="J100" t="n">
-        <v>22.968</v>
-      </c>
-      <c r="K100" t="n">
-        <v>1809.68</v>
+        <v>1133.614</v>
       </c>
     </row>
     <row r="101">
@@ -4784,10 +4482,7 @@
         <v>17.154</v>
       </c>
       <c r="J101" t="n">
-        <v>104.664</v>
-      </c>
-      <c r="K101" t="n">
-        <v>2650.152</v>
+        <v>1615.456</v>
       </c>
     </row>
     <row r="102">
@@ -4827,10 +4522,7 @@
         <v>14.9225</v>
       </c>
       <c r="J102" t="n">
-        <v>32.5725</v>
-      </c>
-      <c r="K102" t="n">
-        <v>2284.8025</v>
+        <v>1431.565</v>
       </c>
     </row>
     <row r="103">
@@ -4870,10 +4562,7 @@
         <v>10.625</v>
       </c>
       <c r="J103" t="n">
-        <v>27.775</v>
-      </c>
-      <c r="K103" t="n">
-        <v>1769.435</v>
+        <v>1145.77</v>
       </c>
     </row>
     <row r="104">
@@ -4913,10 +4602,7 @@
         <v>13.29</v>
       </c>
       <c r="J104" t="n">
-        <v>25.904</v>
-      </c>
-      <c r="K104" t="n">
-        <v>1676.496</v>
+        <v>1126.486</v>
       </c>
     </row>
     <row r="105">
@@ -4956,10 +4642,7 @@
         <v>18.756</v>
       </c>
       <c r="J105" t="n">
-        <v>29.82</v>
-      </c>
-      <c r="K105" t="n">
-        <v>2227.54</v>
+        <v>1403.784</v>
       </c>
     </row>
     <row r="106">
@@ -4999,10 +4682,7 @@
         <v>17.9675</v>
       </c>
       <c r="J106" t="n">
-        <v>31.5925</v>
-      </c>
-      <c r="K106" t="n">
-        <v>2606.2775</v>
+        <v>1671.375</v>
       </c>
     </row>
     <row r="107">
@@ -5042,10 +4722,7 @@
         <v>20.645</v>
       </c>
       <c r="J107" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="K107" t="n">
-        <v>2874.815</v>
+        <v>1834.165</v>
       </c>
     </row>
     <row r="108">
@@ -5085,10 +4762,7 @@
         <v>13.065</v>
       </c>
       <c r="J108" t="n">
-        <v>33.8975</v>
-      </c>
-      <c r="K108" t="n">
-        <v>2033.505</v>
+        <v>1288.0575</v>
       </c>
     </row>
     <row r="109">
@@ -5128,10 +4802,7 @@
         <v>16.554</v>
       </c>
       <c r="J109" t="n">
-        <v>22.666</v>
-      </c>
-      <c r="K109" t="n">
-        <v>2110.47</v>
+        <v>1387.244</v>
       </c>
     </row>
     <row r="110">
@@ -5171,10 +4842,7 @@
         <v>14.6925</v>
       </c>
       <c r="J110" t="n">
-        <v>30.8475</v>
-      </c>
-      <c r="K110" t="n">
-        <v>1878.5425</v>
+        <v>1218.0925</v>
       </c>
     </row>
     <row r="111">
@@ -5214,10 +4882,7 @@
         <v>11.708</v>
       </c>
       <c r="J111" t="n">
-        <v>23.538</v>
-      </c>
-      <c r="K111" t="n">
-        <v>1547.45</v>
+        <v>974.744</v>
       </c>
     </row>
     <row r="112">
@@ -5257,10 +4922,7 @@
         <v>6.748</v>
       </c>
       <c r="J112" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="K112" t="n">
-        <v>793.564</v>
+        <v>502.362</v>
       </c>
     </row>
     <row r="113">
@@ -5300,10 +4962,7 @@
         <v>14.93</v>
       </c>
       <c r="J113" t="n">
-        <v>29.5425</v>
-      </c>
-      <c r="K113" t="n">
-        <v>1727.94</v>
+        <v>1108.4575</v>
       </c>
     </row>
     <row r="114">
@@ -5343,10 +5002,7 @@
         <v>12.642</v>
       </c>
       <c r="J114" t="n">
-        <v>33.222</v>
-      </c>
-      <c r="K114" t="n">
-        <v>1633.776</v>
+        <v>1047.874</v>
       </c>
     </row>
     <row r="115">
@@ -5386,10 +5042,7 @@
         <v>12.612</v>
       </c>
       <c r="J115" t="n">
-        <v>21.846</v>
-      </c>
-      <c r="K115" t="n">
-        <v>1394.124</v>
+        <v>921.186</v>
       </c>
     </row>
     <row r="116">
@@ -5429,10 +5082,7 @@
         <v>13.596</v>
       </c>
       <c r="J116" t="n">
-        <v>24.994</v>
-      </c>
-      <c r="K116" t="n">
-        <v>1528.144</v>
+        <v>1013.314</v>
       </c>
     </row>
     <row r="117">
@@ -5472,10 +5122,7 @@
         <v>12.104</v>
       </c>
       <c r="J117" t="n">
-        <v>18.736</v>
-      </c>
-      <c r="K117" t="n">
-        <v>1323.996</v>
+        <v>832.5120000000001</v>
       </c>
     </row>
     <row r="118">
@@ -5515,10 +5162,7 @@
         <v>11.466</v>
       </c>
       <c r="J118" t="n">
-        <v>21.726</v>
-      </c>
-      <c r="K118" t="n">
-        <v>1192.506</v>
+        <v>800.4300000000001</v>
       </c>
     </row>
     <row r="119">
@@ -5558,10 +5202,7 @@
         <v>11.182</v>
       </c>
       <c r="J119" t="n">
-        <v>29.954</v>
-      </c>
-      <c r="K119" t="n">
-        <v>1540.374</v>
+        <v>1021.398</v>
       </c>
     </row>
     <row r="120">
@@ -5601,10 +5242,7 @@
         <v>9.41</v>
       </c>
       <c r="J120" t="n">
-        <v>21.642</v>
-      </c>
-      <c r="K120" t="n">
-        <v>1103.692</v>
+        <v>715.998</v>
       </c>
     </row>
     <row r="121">
@@ -5644,10 +5282,7 @@
         <v>10.3825</v>
       </c>
       <c r="J121" t="n">
-        <v>17.5875</v>
-      </c>
-      <c r="K121" t="n">
-        <v>1132.1625</v>
+        <v>759.775</v>
       </c>
     </row>
     <row r="122">
@@ -5687,10 +5322,7 @@
         <v>9.132000000000001</v>
       </c>
       <c r="J122" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="K122" t="n">
-        <v>1195.492</v>
+        <v>751.8799999999999</v>
       </c>
     </row>
     <row r="123">
@@ -5730,10 +5362,7 @@
         <v>8.784000000000001</v>
       </c>
       <c r="J123" t="n">
-        <v>21.088</v>
-      </c>
-      <c r="K123" t="n">
-        <v>1098.998</v>
+        <v>730.6079999999999</v>
       </c>
     </row>
     <row r="124">
@@ -5773,10 +5402,7 @@
         <v>10.675</v>
       </c>
       <c r="J124" t="n">
-        <v>22.155</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1231.9525</v>
+        <v>815.125</v>
       </c>
     </row>
     <row r="125">
@@ -5816,10 +5442,7 @@
         <v>10.72</v>
       </c>
       <c r="J125" t="n">
-        <v>23.44666666666667</v>
-      </c>
-      <c r="K125" t="n">
-        <v>1218.59</v>
+        <v>822.1799999999999</v>
       </c>
     </row>
     <row r="126">
@@ -5859,10 +5482,7 @@
         <v>9.343333333333334</v>
       </c>
       <c r="J126" t="n">
-        <v>18.42333333333334</v>
-      </c>
-      <c r="K126" t="n">
-        <v>1116.21</v>
+        <v>768.2199999999999</v>
       </c>
     </row>
     <row r="127">
@@ -5902,10 +5522,7 @@
         <v>10.654</v>
       </c>
       <c r="J127" t="n">
-        <v>24.574</v>
-      </c>
-      <c r="K127" t="n">
-        <v>1341.122</v>
+        <v>881.1779999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5945,10 +5562,7 @@
         <v>38.514</v>
       </c>
       <c r="J128" t="n">
-        <v>42.78</v>
-      </c>
-      <c r="K128" t="n">
-        <v>5434.648</v>
+        <v>3580.003999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5988,10 +5602,7 @@
         <v>32.9225</v>
       </c>
       <c r="J129" t="n">
-        <v>35.7375</v>
-      </c>
-      <c r="K129" t="n">
-        <v>4289.725</v>
+        <v>2699.7525</v>
       </c>
     </row>
     <row r="130">
@@ -6031,10 +5642,7 @@
         <v>22.265</v>
       </c>
       <c r="J130" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="K130" t="n">
-        <v>2514.2625</v>
+        <v>1536.935</v>
       </c>
     </row>
     <row r="131">
@@ -6074,10 +5682,7 @@
         <v>35.628</v>
       </c>
       <c r="J131" t="n">
-        <v>43.106</v>
-      </c>
-      <c r="K131" t="n">
-        <v>5155.968</v>
+        <v>3213.322</v>
       </c>
     </row>
     <row r="132">
@@ -6117,10 +5722,7 @@
         <v>37.01</v>
       </c>
       <c r="J132" t="n">
-        <v>30.7725</v>
-      </c>
-      <c r="K132" t="n">
-        <v>4427.93</v>
+        <v>2813.51</v>
       </c>
     </row>
     <row r="133">
@@ -6160,10 +5762,7 @@
         <v>36.06999999999999</v>
       </c>
       <c r="J133" t="n">
-        <v>49.1225</v>
-      </c>
-      <c r="K133" t="n">
-        <v>5637.945</v>
+        <v>3534.025</v>
       </c>
     </row>
     <row r="134">
@@ -6203,10 +5802,7 @@
         <v>30.68</v>
       </c>
       <c r="J134" t="n">
-        <v>33.99</v>
-      </c>
-      <c r="K134" t="n">
-        <v>4463.360000000001</v>
+        <v>2747.735</v>
       </c>
     </row>
     <row r="135">
@@ -6246,10 +5842,7 @@
         <v>34.124</v>
       </c>
       <c r="J135" t="n">
-        <v>43.384</v>
-      </c>
-      <c r="K135" t="n">
-        <v>5125.040000000001</v>
+        <v>3234.284</v>
       </c>
     </row>
     <row r="136">
@@ -6289,10 +5882,7 @@
         <v>33.166</v>
       </c>
       <c r="J136" t="n">
-        <v>38.836</v>
-      </c>
-      <c r="K136" t="n">
-        <v>4688.178</v>
+        <v>3050.104</v>
       </c>
     </row>
     <row r="137">
@@ -6332,10 +5922,7 @@
         <v>32.22199999999999</v>
       </c>
       <c r="J137" t="n">
-        <v>36.302</v>
-      </c>
-      <c r="K137" t="n">
-        <v>4384.846</v>
+        <v>2823.486</v>
       </c>
     </row>
     <row r="138">
@@ -6375,10 +5962,7 @@
         <v>30.9975</v>
       </c>
       <c r="J138" t="n">
-        <v>32.2275</v>
-      </c>
-      <c r="K138" t="n">
-        <v>3669.8175</v>
+        <v>2269.2025</v>
       </c>
     </row>
     <row r="139">
@@ -6418,10 +6002,7 @@
         <v>31.2</v>
       </c>
       <c r="J139" t="n">
-        <v>35.414</v>
-      </c>
-      <c r="K139" t="n">
-        <v>4194.276</v>
+        <v>2683.858</v>
       </c>
     </row>
     <row r="140">
@@ -6461,10 +6042,7 @@
         <v>30.8075</v>
       </c>
       <c r="J140" t="n">
-        <v>38.23999999999999</v>
-      </c>
-      <c r="K140" t="n">
-        <v>4710.6325</v>
+        <v>2950.7675</v>
       </c>
     </row>
     <row r="141">
@@ -6504,10 +6082,7 @@
         <v>31.81</v>
       </c>
       <c r="J141" t="n">
-        <v>39.074</v>
-      </c>
-      <c r="K141" t="n">
-        <v>4176.456</v>
+        <v>2597.23</v>
       </c>
     </row>
     <row r="142">
@@ -6547,10 +6122,7 @@
         <v>31.135</v>
       </c>
       <c r="J142" t="n">
-        <v>38.7625</v>
-      </c>
-      <c r="K142" t="n">
-        <v>4665.295</v>
+        <v>3051.8525</v>
       </c>
     </row>
     <row r="143">
@@ -6590,10 +6162,7 @@
         <v>32.94</v>
       </c>
       <c r="J143" t="n">
-        <v>40.482</v>
-      </c>
-      <c r="K143" t="n">
-        <v>4605.17</v>
+        <v>2915.096</v>
       </c>
     </row>
     <row r="144">
@@ -6633,10 +6202,7 @@
         <v>32.09</v>
       </c>
       <c r="J144" t="n">
-        <v>35.6825</v>
-      </c>
-      <c r="K144" t="n">
-        <v>4397.26</v>
+        <v>2834.77</v>
       </c>
     </row>
     <row r="145">
@@ -6676,10 +6242,7 @@
         <v>33.096</v>
       </c>
       <c r="J145" t="n">
-        <v>37.484</v>
-      </c>
-      <c r="K145" t="n">
-        <v>4586.442</v>
+        <v>2814.9</v>
       </c>
     </row>
     <row r="146">
@@ -6719,10 +6282,7 @@
         <v>17.858</v>
       </c>
       <c r="J146" t="n">
-        <v>33.932</v>
-      </c>
-      <c r="K146" t="n">
-        <v>2550.434</v>
+        <v>1678.694</v>
       </c>
     </row>
     <row r="147">
@@ -6762,10 +6322,7 @@
         <v>21.516</v>
       </c>
       <c r="J147" t="n">
-        <v>38.096</v>
-      </c>
-      <c r="K147" t="n">
-        <v>3092.706</v>
+        <v>2007.2</v>
       </c>
     </row>
     <row r="148">
@@ -6805,10 +6362,7 @@
         <v>12.51666666666667</v>
       </c>
       <c r="J148" t="n">
-        <v>32.48333333333333</v>
-      </c>
-      <c r="K148" t="n">
-        <v>1834.123333333333</v>
+        <v>1186.926666666667</v>
       </c>
     </row>
     <row r="149">
@@ -6848,10 +6402,7 @@
         <v>17.056</v>
       </c>
       <c r="J149" t="n">
-        <v>35.47799999999999</v>
-      </c>
-      <c r="K149" t="n">
-        <v>2449.738</v>
+        <v>1662.148</v>
       </c>
     </row>
     <row r="150">
@@ -6891,10 +6442,7 @@
         <v>16.8725</v>
       </c>
       <c r="J150" t="n">
-        <v>32.2325</v>
-      </c>
-      <c r="K150" t="n">
-        <v>2429.615</v>
+        <v>1597.195</v>
       </c>
     </row>
     <row r="151">
@@ -6934,10 +6482,7 @@
         <v>15.04666666666667</v>
       </c>
       <c r="J151" t="n">
-        <v>32</v>
-      </c>
-      <c r="K151" t="n">
-        <v>2165.026666666667</v>
+        <v>1490.136666666667</v>
       </c>
     </row>
     <row r="152">
@@ -6977,10 +6522,7 @@
         <v>17.118</v>
       </c>
       <c r="J152" t="n">
-        <v>43.824</v>
-      </c>
-      <c r="K152" t="n">
-        <v>2734.95</v>
+        <v>1769.03</v>
       </c>
     </row>
     <row r="153">
@@ -7020,10 +6562,7 @@
         <v>14.985</v>
       </c>
       <c r="J153" t="n">
-        <v>30.72</v>
-      </c>
-      <c r="K153" t="n">
-        <v>2102.725</v>
+        <v>1344.05</v>
       </c>
     </row>
     <row r="154">
@@ -7063,10 +6602,7 @@
         <v>18.086</v>
       </c>
       <c r="J154" t="n">
-        <v>34.206</v>
-      </c>
-      <c r="K154" t="n">
-        <v>2554.434</v>
+        <v>1688.49</v>
       </c>
     </row>
     <row r="155">
@@ -7106,10 +6642,7 @@
         <v>18.44</v>
       </c>
       <c r="J155" t="n">
-        <v>41.31</v>
-      </c>
-      <c r="K155" t="n">
-        <v>2746.564</v>
+        <v>1762.044</v>
       </c>
     </row>
     <row r="156">
@@ -7149,10 +6682,7 @@
         <v>18.9225</v>
       </c>
       <c r="J156" t="n">
-        <v>29.0975</v>
-      </c>
-      <c r="K156" t="n">
-        <v>2327.7125</v>
+        <v>1590.1475</v>
       </c>
     </row>
     <row r="157">
@@ -7192,10 +6722,7 @@
         <v>17.29</v>
       </c>
       <c r="J157" t="n">
-        <v>36.6125</v>
-      </c>
-      <c r="K157" t="n">
-        <v>2563.49</v>
+        <v>1649.825</v>
       </c>
     </row>
     <row r="158">
@@ -7235,10 +6762,7 @@
         <v>15.23</v>
       </c>
       <c r="J158" t="n">
-        <v>32.474</v>
-      </c>
-      <c r="K158" t="n">
-        <v>2218.398</v>
+        <v>1459.792</v>
       </c>
     </row>
     <row r="159">
@@ -7278,10 +6802,7 @@
         <v>15.692</v>
       </c>
       <c r="J159" t="n">
-        <v>37.622</v>
-      </c>
-      <c r="K159" t="n">
-        <v>2350.036</v>
+        <v>1553.71</v>
       </c>
     </row>
     <row r="160">
@@ -7321,10 +6842,7 @@
         <v>15.958</v>
       </c>
       <c r="J160" t="n">
-        <v>33.698</v>
-      </c>
-      <c r="K160" t="n">
-        <v>2302.716</v>
+        <v>1495.472</v>
       </c>
     </row>
     <row r="161">
@@ -7364,10 +6882,7 @@
         <v>14.475</v>
       </c>
       <c r="J161" t="n">
-        <v>36.62</v>
-      </c>
-      <c r="K161" t="n">
-        <v>2155.2025</v>
+        <v>1397.355</v>
       </c>
     </row>
     <row r="162">
@@ -7407,10 +6922,7 @@
         <v>19.608</v>
       </c>
       <c r="J162" t="n">
-        <v>32.892</v>
-      </c>
-      <c r="K162" t="n">
-        <v>2633.744</v>
+        <v>1794.748</v>
       </c>
     </row>
     <row r="163">
@@ -7450,10 +6962,7 @@
         <v>19.63</v>
       </c>
       <c r="J163" t="n">
-        <v>37.884</v>
-      </c>
-      <c r="K163" t="n">
-        <v>2974.262</v>
+        <v>1871.95</v>
       </c>
     </row>
     <row r="164">
@@ -7493,10 +7002,7 @@
         <v>20.334</v>
       </c>
       <c r="J164" t="n">
-        <v>44.97</v>
-      </c>
-      <c r="K164" t="n">
-        <v>3060.35</v>
+        <v>1941.196</v>
       </c>
     </row>
     <row r="165">
@@ -7536,10 +7042,7 @@
         <v>20.514</v>
       </c>
       <c r="J165" t="n">
-        <v>35.17399999999999</v>
-      </c>
-      <c r="K165" t="n">
-        <v>2835.764</v>
+        <v>1803.528</v>
       </c>
     </row>
     <row r="166">
@@ -7579,10 +7082,7 @@
         <v>10.538</v>
       </c>
       <c r="J166" t="n">
-        <v>16.158</v>
-      </c>
-      <c r="K166" t="n">
-        <v>1094.954</v>
+        <v>726.3979999999999</v>
       </c>
     </row>
     <row r="167">
@@ -7622,10 +7122,7 @@
         <v>19.402</v>
       </c>
       <c r="J167" t="n">
-        <v>44.326</v>
-      </c>
-      <c r="K167" t="n">
-        <v>2872.579999999999</v>
+        <v>1811.408</v>
       </c>
     </row>
     <row r="168">
@@ -7665,10 +7162,7 @@
         <v>20.146</v>
       </c>
       <c r="J168" t="n">
-        <v>43.884</v>
-      </c>
-      <c r="K168" t="n">
-        <v>3042.38</v>
+        <v>1878.308</v>
       </c>
     </row>
     <row r="169">
@@ -7708,10 +7202,7 @@
         <v>16.5225</v>
       </c>
       <c r="J169" t="n">
-        <v>37.86499999999999</v>
-      </c>
-      <c r="K169" t="n">
-        <v>2286.7075</v>
+        <v>1406.5675</v>
       </c>
     </row>
     <row r="170">
@@ -7751,10 +7242,7 @@
         <v>19.502</v>
       </c>
       <c r="J170" t="n">
-        <v>42.208</v>
-      </c>
-      <c r="K170" t="n">
-        <v>2784.734</v>
+        <v>1723.742</v>
       </c>
     </row>
     <row r="171">
@@ -7794,10 +7282,7 @@
         <v>18.188</v>
       </c>
       <c r="J171" t="n">
-        <v>33.812</v>
-      </c>
-      <c r="K171" t="n">
-        <v>2328.12</v>
+        <v>1436.45</v>
       </c>
     </row>
     <row r="172">
@@ -7837,10 +7322,7 @@
         <v>15.325</v>
       </c>
       <c r="J172" t="n">
-        <v>31.0525</v>
-      </c>
-      <c r="K172" t="n">
-        <v>1991.3575</v>
+        <v>1201.84</v>
       </c>
     </row>
     <row r="173">
@@ -7880,10 +7362,7 @@
         <v>13.632</v>
       </c>
       <c r="J173" t="n">
-        <v>28.502</v>
-      </c>
-      <c r="K173" t="n">
-        <v>1644.526</v>
+        <v>1011.664</v>
       </c>
     </row>
     <row r="174">
@@ -7923,10 +7402,7 @@
         <v>14.8575</v>
       </c>
       <c r="J174" t="n">
-        <v>25.2025</v>
-      </c>
-      <c r="K174" t="n">
-        <v>1697.365</v>
+        <v>1082.0125</v>
       </c>
     </row>
     <row r="175">
@@ -7966,10 +7442,7 @@
         <v>18.364</v>
       </c>
       <c r="J175" t="n">
-        <v>30.998</v>
-      </c>
-      <c r="K175" t="n">
-        <v>2258.118</v>
+        <v>1474.446</v>
       </c>
     </row>
     <row r="176">
@@ -8009,10 +7482,7 @@
         <v>18.016</v>
       </c>
       <c r="J176" t="n">
-        <v>39.606</v>
-      </c>
-      <c r="K176" t="n">
-        <v>2568.894</v>
+        <v>1582.07</v>
       </c>
     </row>
     <row r="177">
@@ -8052,10 +7522,7 @@
         <v>16.61</v>
       </c>
       <c r="J177" t="n">
-        <v>29.25</v>
-      </c>
-      <c r="K177" t="n">
-        <v>1851.6275</v>
+        <v>1212.2175</v>
       </c>
     </row>
     <row r="178">
@@ -8095,10 +7562,7 @@
         <v>18.4825</v>
       </c>
       <c r="J178" t="n">
-        <v>42.3125</v>
-      </c>
-      <c r="K178" t="n">
-        <v>2861.1275</v>
+        <v>1789.77</v>
       </c>
     </row>
     <row r="179">
@@ -8138,10 +7602,7 @@
         <v>19.042</v>
       </c>
       <c r="J179" t="n">
-        <v>40.166</v>
-      </c>
-      <c r="K179" t="n">
-        <v>2772.58</v>
+        <v>1734.146</v>
       </c>
     </row>
     <row r="180">
@@ -8181,10 +7642,7 @@
         <v>18.19</v>
       </c>
       <c r="J180" t="n">
-        <v>41.3825</v>
-      </c>
-      <c r="K180" t="n">
-        <v>2582.6725</v>
+        <v>1612.205</v>
       </c>
     </row>
     <row r="181">
@@ -8224,10 +7682,7 @@
         <v>16.822</v>
       </c>
       <c r="J181" t="n">
-        <v>29.282</v>
-      </c>
-      <c r="K181" t="n">
-        <v>1947.538</v>
+        <v>1216.45</v>
       </c>
     </row>
     <row r="182">
@@ -8267,10 +7722,7 @@
         <v>14.1625</v>
       </c>
       <c r="J182" t="n">
-        <v>38.4875</v>
-      </c>
-      <c r="K182" t="n">
-        <v>1914.5725</v>
+        <v>1179.93</v>
       </c>
     </row>
     <row r="183">
@@ -8310,10 +7762,7 @@
         <v>14.702</v>
       </c>
       <c r="J183" t="n">
-        <v>24.63</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1573.776</v>
+        <v>1050.088</v>
       </c>
     </row>
     <row r="184">
@@ -8353,10 +7802,7 @@
         <v>9.174999999999999</v>
       </c>
       <c r="J184" t="n">
-        <v>19.3925</v>
-      </c>
-      <c r="K184" t="n">
-        <v>1137.345</v>
+        <v>705.38</v>
       </c>
     </row>
     <row r="185">
@@ -8396,10 +7842,7 @@
         <v>18.408</v>
       </c>
       <c r="J185" t="n">
-        <v>30.224</v>
-      </c>
-      <c r="K185" t="n">
-        <v>2410.09</v>
+        <v>1510.696</v>
       </c>
     </row>
     <row r="186">
@@ -8439,10 +7882,7 @@
         <v>13.586</v>
       </c>
       <c r="J186" t="n">
-        <v>25.94</v>
-      </c>
-      <c r="K186" t="n">
-        <v>1556.42</v>
+        <v>1032.764</v>
       </c>
     </row>
     <row r="187">
@@ -8482,10 +7922,7 @@
         <v>17.036</v>
       </c>
       <c r="J187" t="n">
-        <v>31.404</v>
-      </c>
-      <c r="K187" t="n">
-        <v>2158.882</v>
+        <v>1333.28</v>
       </c>
     </row>
     <row r="188">
@@ -8525,10 +7962,7 @@
         <v>16.7725</v>
       </c>
       <c r="J188" t="n">
-        <v>28.845</v>
-      </c>
-      <c r="K188" t="n">
-        <v>2019.3225</v>
+        <v>1278.8875</v>
       </c>
     </row>
     <row r="189">
@@ -8568,10 +8002,7 @@
         <v>18.878</v>
       </c>
       <c r="J189" t="n">
-        <v>28.47</v>
-      </c>
-      <c r="K189" t="n">
-        <v>2323.488</v>
+        <v>1464.338</v>
       </c>
     </row>
     <row r="190">
@@ -8611,10 +8042,7 @@
         <v>13.17333333333333</v>
       </c>
       <c r="J190" t="n">
-        <v>34.71</v>
-      </c>
-      <c r="K190" t="n">
-        <v>1612.503333333333</v>
+        <v>1004.986666666667</v>
       </c>
     </row>
     <row r="191">
@@ -8654,10 +8082,7 @@
         <v>15.748</v>
       </c>
       <c r="J191" t="n">
-        <v>28.412</v>
-      </c>
-      <c r="K191" t="n">
-        <v>1864.56</v>
+        <v>1209.782</v>
       </c>
     </row>
     <row r="192">
@@ -8697,10 +8122,7 @@
         <v>15.3825</v>
       </c>
       <c r="J192" t="n">
-        <v>27.59</v>
-      </c>
-      <c r="K192" t="n">
-        <v>1720.905</v>
+        <v>1126.82</v>
       </c>
     </row>
     <row r="193">
@@ -8740,10 +8162,7 @@
         <v>14.298</v>
       </c>
       <c r="J193" t="n">
-        <v>29.97</v>
-      </c>
-      <c r="K193" t="n">
-        <v>1801.392</v>
+        <v>1121.426</v>
       </c>
     </row>
     <row r="194">
@@ -8783,10 +8202,7 @@
         <v>16.628</v>
       </c>
       <c r="J194" t="n">
-        <v>34.848</v>
-      </c>
-      <c r="K194" t="n">
-        <v>2178.42</v>
+        <v>1361.054</v>
       </c>
     </row>
     <row r="195">
@@ -8826,10 +8242,7 @@
         <v>18.2625</v>
       </c>
       <c r="J195" t="n">
-        <v>30.0825</v>
-      </c>
-      <c r="K195" t="n">
-        <v>2170.82</v>
+        <v>1334.71</v>
       </c>
     </row>
     <row r="196">
@@ -8869,10 +8282,7 @@
         <v>14.7125</v>
       </c>
       <c r="J196" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="K196" t="n">
-        <v>1528.595</v>
+        <v>917.0100000000001</v>
       </c>
     </row>
     <row r="197">
@@ -8912,10 +8322,7 @@
         <v>16.834</v>
       </c>
       <c r="J197" t="n">
-        <v>36.614</v>
-      </c>
-      <c r="K197" t="n">
-        <v>2295.1</v>
+        <v>1424.08</v>
       </c>
     </row>
     <row r="198">
@@ -8955,10 +8362,7 @@
         <v>13.362</v>
       </c>
       <c r="J198" t="n">
-        <v>29.82999999999999</v>
-      </c>
-      <c r="K198" t="n">
-        <v>1773.356</v>
+        <v>1110.396</v>
       </c>
     </row>
     <row r="199">
@@ -8998,10 +8402,7 @@
         <v>17.62</v>
       </c>
       <c r="J199" t="n">
-        <v>27.7875</v>
-      </c>
-      <c r="K199" t="n">
-        <v>2040.76</v>
+        <v>1300.08</v>
       </c>
     </row>
     <row r="200">
@@ -9041,10 +8442,7 @@
         <v>44.336</v>
       </c>
       <c r="J200" t="n">
-        <v>32.156</v>
-      </c>
-      <c r="K200" t="n">
-        <v>5089.902</v>
+        <v>3699.328</v>
       </c>
     </row>
     <row r="201">
@@ -9084,10 +8482,7 @@
         <v>48.18</v>
       </c>
       <c r="J201" t="n">
-        <v>41.574</v>
-      </c>
-      <c r="K201" t="n">
-        <v>6309.622</v>
+        <v>4196.911999999999</v>
       </c>
     </row>
     <row r="202">
@@ -9127,10 +8522,7 @@
         <v>30.6975</v>
       </c>
       <c r="J202" t="n">
-        <v>34.63249999999999</v>
-      </c>
-      <c r="K202" t="n">
-        <v>3777.5025</v>
+        <v>2403.2625</v>
       </c>
     </row>
     <row r="203">
@@ -9170,10 +8562,7 @@
         <v>38.974</v>
       </c>
       <c r="J203" t="n">
-        <v>39.37</v>
-      </c>
-      <c r="K203" t="n">
-        <v>5238.12</v>
+        <v>3419.75</v>
       </c>
     </row>
     <row r="204">
@@ -9213,10 +8602,7 @@
         <v>39.5475</v>
       </c>
       <c r="J204" t="n">
-        <v>45.1875</v>
-      </c>
-      <c r="K204" t="n">
-        <v>5973.435</v>
+        <v>3844.785</v>
       </c>
     </row>
     <row r="205">
@@ -9256,10 +8642,7 @@
         <v>42.646</v>
       </c>
       <c r="J205" t="n">
-        <v>37.976</v>
-      </c>
-      <c r="K205" t="n">
-        <v>5143.348</v>
+        <v>3494.246</v>
       </c>
     </row>
     <row r="206">
@@ -9299,10 +8682,7 @@
         <v>40.3075</v>
       </c>
       <c r="J206" t="n">
-        <v>33.3825</v>
-      </c>
-      <c r="K206" t="n">
-        <v>4806.2125</v>
+        <v>3248.37</v>
       </c>
     </row>
     <row r="207">
@@ -9342,10 +8722,7 @@
         <v>41.152</v>
       </c>
       <c r="J207" t="n">
-        <v>32.78</v>
-      </c>
-      <c r="K207" t="n">
-        <v>4831.098</v>
+        <v>3391.308</v>
       </c>
     </row>
     <row r="208">
@@ -9385,10 +8762,7 @@
         <v>42.11</v>
       </c>
       <c r="J208" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="K208" t="n">
-        <v>5453.29</v>
+        <v>3601.08</v>
       </c>
     </row>
     <row r="209">
@@ -9428,10 +8802,7 @@
         <v>42.1075</v>
       </c>
       <c r="J209" t="n">
-        <v>34.425</v>
-      </c>
-      <c r="K209" t="n">
-        <v>5506.6475</v>
+        <v>3560.42</v>
       </c>
     </row>
     <row r="210">
@@ -9471,10 +8842,7 @@
         <v>39.1675</v>
       </c>
       <c r="J210" t="n">
-        <v>45.605</v>
-      </c>
-      <c r="K210" t="n">
-        <v>5861.077499999999</v>
+        <v>3739.9</v>
       </c>
     </row>
     <row r="211">
@@ -9514,10 +8882,7 @@
         <v>33.004</v>
       </c>
       <c r="J211" t="n">
-        <v>32.352</v>
-      </c>
-      <c r="K211" t="n">
-        <v>3900.776</v>
+        <v>2688.594</v>
       </c>
     </row>
     <row r="212">
@@ -9557,10 +8922,7 @@
         <v>31.16800000000001</v>
       </c>
       <c r="J212" t="n">
-        <v>32.052</v>
-      </c>
-      <c r="K212" t="n">
-        <v>4182.346</v>
+        <v>2729.968</v>
       </c>
     </row>
     <row r="213">
@@ -9600,10 +8962,7 @@
         <v>31.622</v>
       </c>
       <c r="J213" t="n">
-        <v>34.152</v>
-      </c>
-      <c r="K213" t="n">
-        <v>4011.784000000001</v>
+        <v>2512.83</v>
       </c>
     </row>
     <row r="214">
@@ -9643,10 +9002,7 @@
         <v>37.8725</v>
       </c>
       <c r="J214" t="n">
-        <v>37.645</v>
-      </c>
-      <c r="K214" t="n">
-        <v>4776.3775</v>
+        <v>3295.495</v>
       </c>
     </row>
     <row r="215">
@@ -9686,10 +9042,7 @@
         <v>40.23</v>
       </c>
       <c r="J215" t="n">
-        <v>31.87666666666667</v>
-      </c>
-      <c r="K215" t="n">
-        <v>4642.653333333333</v>
+        <v>2923.72</v>
       </c>
     </row>
     <row r="216">
@@ -9729,10 +9082,7 @@
         <v>35.7875</v>
       </c>
       <c r="J216" t="n">
-        <v>42.2325</v>
-      </c>
-      <c r="K216" t="n">
-        <v>5134.495</v>
+        <v>3339.9775</v>
       </c>
     </row>
     <row r="217">
@@ -9772,10 +9122,7 @@
         <v>36.06</v>
       </c>
       <c r="J217" t="n">
-        <v>30.938</v>
-      </c>
-      <c r="K217" t="n">
-        <v>4345.433999999999</v>
+        <v>3026.733999999999</v>
       </c>
     </row>
     <row r="218">
@@ -9815,10 +9162,7 @@
         <v>7.515</v>
       </c>
       <c r="J218" t="n">
-        <v>20.745</v>
-      </c>
-      <c r="K218" t="n">
-        <v>900.2049999999999</v>
+        <v>593.0225</v>
       </c>
     </row>
     <row r="219">
@@ -9858,10 +9202,7 @@
         <v>10.805</v>
       </c>
       <c r="J219" t="n">
-        <v>26.2275</v>
-      </c>
-      <c r="K219" t="n">
-        <v>1265.875</v>
+        <v>827.6675</v>
       </c>
     </row>
     <row r="220">
@@ -9901,10 +9242,7 @@
         <v>7.470000000000001</v>
       </c>
       <c r="J220" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="K220" t="n">
-        <v>709.7619999999999</v>
+        <v>451.6</v>
       </c>
     </row>
     <row r="221">
@@ -9944,10 +9282,7 @@
         <v>9.732000000000001</v>
       </c>
       <c r="J221" t="n">
-        <v>29.704</v>
-      </c>
-      <c r="K221" t="n">
-        <v>1060.942</v>
+        <v>708.1500000000001</v>
       </c>
     </row>
     <row r="222">
@@ -9987,10 +9322,7 @@
         <v>12.52</v>
       </c>
       <c r="J222" t="n">
-        <v>25.7625</v>
-      </c>
-      <c r="K222" t="n">
-        <v>1341.085</v>
+        <v>862.9775</v>
       </c>
     </row>
     <row r="223">
@@ -10030,10 +9362,7 @@
         <v>10.73666666666667</v>
       </c>
       <c r="J223" t="n">
-        <v>28.24333333333334</v>
-      </c>
-      <c r="K223" t="n">
-        <v>1326.34</v>
+        <v>828.9166666666666</v>
       </c>
     </row>
     <row r="224">
@@ -10073,10 +9402,7 @@
         <v>10.728</v>
       </c>
       <c r="J224" t="n">
-        <v>25.768</v>
-      </c>
-      <c r="K224" t="n">
-        <v>1183.46</v>
+        <v>765.216</v>
       </c>
     </row>
     <row r="225">
@@ -10116,10 +9442,7 @@
         <v>10.558</v>
       </c>
       <c r="J225" t="n">
-        <v>22.762</v>
-      </c>
-      <c r="K225" t="n">
-        <v>1102.99</v>
+        <v>682.046</v>
       </c>
     </row>
     <row r="226">
@@ -10159,10 +9482,7 @@
         <v>10.52</v>
       </c>
       <c r="J226" t="n">
-        <v>25.005</v>
-      </c>
-      <c r="K226" t="n">
-        <v>1080.28</v>
+        <v>694.575</v>
       </c>
     </row>
     <row r="227">
@@ -10202,10 +9522,7 @@
         <v>6.014999999999999</v>
       </c>
       <c r="J227" t="n">
-        <v>25.5975</v>
-      </c>
-      <c r="K227" t="n">
-        <v>760.5825</v>
+        <v>452.4825</v>
       </c>
     </row>
     <row r="228">
@@ -10245,10 +9562,7 @@
         <v>8.73</v>
       </c>
       <c r="J228" t="n">
-        <v>18.392</v>
-      </c>
-      <c r="K228" t="n">
-        <v>1084.054</v>
+        <v>720.3</v>
       </c>
     </row>
     <row r="229">
@@ -10288,10 +9602,7 @@
         <v>8.501999999999999</v>
       </c>
       <c r="J229" t="n">
-        <v>17.352</v>
-      </c>
-      <c r="K229" t="n">
-        <v>866.9460000000001</v>
+        <v>550.48</v>
       </c>
     </row>
     <row r="230">
@@ -10331,10 +9642,7 @@
         <v>6.414999999999999</v>
       </c>
       <c r="J230" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K230" t="n">
-        <v>789.0125</v>
+        <v>519.12</v>
       </c>
     </row>
     <row r="231">
@@ -10374,10 +9682,7 @@
         <v>7.834000000000001</v>
       </c>
       <c r="J231" t="n">
-        <v>19.974</v>
-      </c>
-      <c r="K231" t="n">
-        <v>905.5019999999998</v>
+        <v>566.7339999999999</v>
       </c>
     </row>
     <row r="232">
@@ -10417,10 +9722,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="J232" t="n">
-        <v>16.142</v>
-      </c>
-      <c r="K232" t="n">
-        <v>815.3340000000001</v>
+        <v>528.852</v>
       </c>
     </row>
     <row r="233">
@@ -10460,10 +9762,7 @@
         <v>6.587999999999999</v>
       </c>
       <c r="J233" t="n">
-        <v>17.804</v>
-      </c>
-      <c r="K233" t="n">
-        <v>801.302</v>
+        <v>523.14</v>
       </c>
     </row>
     <row r="234">
@@ -10503,10 +9802,7 @@
         <v>7.465999999999999</v>
       </c>
       <c r="J234" t="n">
-        <v>17.554</v>
-      </c>
-      <c r="K234" t="n">
-        <v>866.948</v>
+        <v>605.478</v>
       </c>
     </row>
     <row r="235">
@@ -10546,10 +9842,7 @@
         <v>10.82666666666667</v>
       </c>
       <c r="J235" t="n">
-        <v>20.74666666666667</v>
-      </c>
-      <c r="K235" t="n">
-        <v>1099.563333333333</v>
+        <v>700.5499999999998</v>
       </c>
     </row>
     <row r="236">
@@ -10589,10 +9882,7 @@
         <v>29.178</v>
       </c>
       <c r="J236" t="n">
-        <v>34.912</v>
-      </c>
-      <c r="K236" t="n">
-        <v>3635.312</v>
+        <v>2468.272</v>
       </c>
     </row>
     <row r="237">
@@ -10632,10 +9922,7 @@
         <v>30.47666666666667</v>
       </c>
       <c r="J237" t="n">
-        <v>36.08</v>
-      </c>
-      <c r="K237" t="n">
-        <v>3944.086666666667</v>
+        <v>2665.82</v>
       </c>
     </row>
     <row r="238">
@@ -10675,10 +9962,7 @@
         <v>18.89</v>
       </c>
       <c r="J238" t="n">
-        <v>17.124</v>
-      </c>
-      <c r="K238" t="n">
-        <v>1562.864</v>
+        <v>1085.948</v>
       </c>
     </row>
     <row r="239">
@@ -10718,10 +10002,7 @@
         <v>30.175</v>
       </c>
       <c r="J239" t="n">
-        <v>40.08750000000001</v>
-      </c>
-      <c r="K239" t="n">
-        <v>3986.77</v>
+        <v>2678.6275</v>
       </c>
     </row>
     <row r="240">
@@ -10761,10 +10042,7 @@
         <v>28.102</v>
       </c>
       <c r="J240" t="n">
-        <v>30.338</v>
-      </c>
-      <c r="K240" t="n">
-        <v>3270.352</v>
+        <v>2200.484</v>
       </c>
     </row>
     <row r="241">
@@ -10804,10 +10082,7 @@
         <v>25.514</v>
       </c>
       <c r="J241" t="n">
-        <v>37.852</v>
-      </c>
-      <c r="K241" t="n">
-        <v>3262.382000000001</v>
+        <v>2107.442</v>
       </c>
     </row>
     <row r="242">
@@ -10847,10 +10122,7 @@
         <v>27.44</v>
       </c>
       <c r="J242" t="n">
-        <v>34.816</v>
-      </c>
-      <c r="K242" t="n">
-        <v>3414.376</v>
+        <v>2292.858</v>
       </c>
     </row>
     <row r="243">
@@ -10890,10 +10162,7 @@
         <v>28.48</v>
       </c>
       <c r="J243" t="n">
-        <v>39.63</v>
-      </c>
-      <c r="K243" t="n">
-        <v>3815.8475</v>
+        <v>2438.0775</v>
       </c>
     </row>
     <row r="244">
@@ -10933,10 +10202,7 @@
         <v>26.1175</v>
       </c>
       <c r="J244" t="n">
-        <v>27.6825</v>
-      </c>
-      <c r="K244" t="n">
-        <v>2708.7175</v>
+        <v>1915.2375</v>
       </c>
     </row>
     <row r="245">
@@ -10976,10 +10242,7 @@
         <v>27.904</v>
       </c>
       <c r="J245" t="n">
-        <v>36.14</v>
-      </c>
-      <c r="K245" t="n">
-        <v>3605.914</v>
+        <v>2402.804</v>
       </c>
     </row>
     <row r="246">
@@ -11019,10 +10282,7 @@
         <v>28.32</v>
       </c>
       <c r="J246" t="n">
-        <v>35.73399999999999</v>
-      </c>
-      <c r="K246" t="n">
-        <v>3503.81</v>
+        <v>2343.99</v>
       </c>
     </row>
     <row r="247">
@@ -11062,10 +10322,7 @@
         <v>26.9</v>
       </c>
       <c r="J247" t="n">
-        <v>32.608</v>
-      </c>
-      <c r="K247" t="n">
-        <v>3216.9</v>
+        <v>2196.928</v>
       </c>
     </row>
     <row r="248">
@@ -11105,10 +10362,7 @@
         <v>28.672</v>
       </c>
       <c r="J248" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="K248" t="n">
-        <v>3358.760000000001</v>
+        <v>2279.862</v>
       </c>
     </row>
     <row r="249">
@@ -11148,10 +10402,7 @@
         <v>27.95</v>
       </c>
       <c r="J249" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="K249" t="n">
-        <v>3485.675</v>
+        <v>2375.9575</v>
       </c>
     </row>
     <row r="250">
@@ -11191,10 +10442,7 @@
         <v>27.625</v>
       </c>
       <c r="J250" t="n">
-        <v>33.17</v>
-      </c>
-      <c r="K250" t="n">
-        <v>3215.8725</v>
+        <v>2100.135</v>
       </c>
     </row>
     <row r="251">
@@ -11234,10 +10482,7 @@
         <v>26.808</v>
       </c>
       <c r="J251" t="n">
-        <v>33.198</v>
-      </c>
-      <c r="K251" t="n">
-        <v>3312.33</v>
+        <v>2222.076</v>
       </c>
     </row>
     <row r="252">
@@ -11277,10 +10522,7 @@
         <v>25.24</v>
       </c>
       <c r="J252" t="n">
-        <v>32.288</v>
-      </c>
-      <c r="K252" t="n">
-        <v>2998.352</v>
+        <v>2026.842</v>
       </c>
     </row>
     <row r="253">
@@ -11320,10 +10562,7 @@
         <v>28.906</v>
       </c>
       <c r="J253" t="n">
-        <v>37.356</v>
-      </c>
-      <c r="K253" t="n">
-        <v>3698.796</v>
+        <v>2509.34</v>
       </c>
     </row>
     <row r="254">
@@ -11363,10 +10602,7 @@
         <v>28.15</v>
       </c>
       <c r="J254" t="n">
-        <v>30.56</v>
-      </c>
-      <c r="K254" t="n">
-        <v>3332.326666666666</v>
+        <v>2175.833333333333</v>
       </c>
     </row>
     <row r="255">
@@ -11406,10 +10642,7 @@
         <v>28.782</v>
       </c>
       <c r="J255" t="n">
-        <v>25.396</v>
-      </c>
-      <c r="K255" t="n">
-        <v>2900.176</v>
+        <v>2127.524</v>
       </c>
     </row>
     <row r="256">
@@ -11449,10 +10682,7 @@
         <v>16.7625</v>
       </c>
       <c r="J256" t="n">
-        <v>22.34</v>
-      </c>
-      <c r="K256" t="n">
-        <v>1767.265</v>
+        <v>1115.4275</v>
       </c>
     </row>
     <row r="257">
@@ -11492,10 +10722,7 @@
         <v>30.086</v>
       </c>
       <c r="J257" t="n">
-        <v>35.38399999999999</v>
-      </c>
-      <c r="K257" t="n">
-        <v>3782.23</v>
+        <v>2535.324</v>
       </c>
     </row>
     <row r="258">
@@ -11535,10 +10762,7 @@
         <v>30.478</v>
       </c>
       <c r="J258" t="n">
-        <v>29.376</v>
-      </c>
-      <c r="K258" t="n">
-        <v>3597.708</v>
+        <v>2449.04</v>
       </c>
     </row>
     <row r="259">
@@ -11578,10 +10802,7 @@
         <v>22.68</v>
       </c>
       <c r="J259" t="n">
-        <v>25.988</v>
-      </c>
-      <c r="K259" t="n">
-        <v>2528.706</v>
+        <v>1578.974</v>
       </c>
     </row>
     <row r="260">
@@ -11621,10 +10842,7 @@
         <v>25.4575</v>
       </c>
       <c r="J260" t="n">
-        <v>29.1925</v>
-      </c>
-      <c r="K260" t="n">
-        <v>2872.1775</v>
+        <v>2014.275</v>
       </c>
     </row>
     <row r="261">
@@ -11664,10 +10882,7 @@
         <v>25.142</v>
       </c>
       <c r="J261" t="n">
-        <v>25.568</v>
-      </c>
-      <c r="K261" t="n">
-        <v>2575.088</v>
+        <v>1620.514</v>
       </c>
     </row>
     <row r="262">
@@ -11707,10 +10922,7 @@
         <v>20.935</v>
       </c>
       <c r="J262" t="n">
-        <v>33.24</v>
-      </c>
-      <c r="K262" t="n">
-        <v>2226.6</v>
+        <v>1539.9275</v>
       </c>
     </row>
     <row r="263">
@@ -11750,10 +10962,7 @@
         <v>26.174</v>
       </c>
       <c r="J263" t="n">
-        <v>38.114</v>
-      </c>
-      <c r="K263" t="n">
-        <v>2823.87</v>
+        <v>1792.754</v>
       </c>
     </row>
     <row r="264">
@@ -11793,10 +11002,7 @@
         <v>21.916</v>
       </c>
       <c r="J264" t="n">
-        <v>27.826</v>
-      </c>
-      <c r="K264" t="n">
-        <v>2210.55</v>
+        <v>1562.54</v>
       </c>
     </row>
     <row r="265">
@@ -11836,10 +11042,7 @@
         <v>25.266</v>
       </c>
       <c r="J265" t="n">
-        <v>23.284</v>
-      </c>
-      <c r="K265" t="n">
-        <v>2400.61</v>
+        <v>1678.78</v>
       </c>
     </row>
     <row r="266">
@@ -11879,10 +11082,7 @@
         <v>19.5225</v>
       </c>
       <c r="J266" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="K266" t="n">
-        <v>1552.73</v>
+        <v>1116.3975</v>
       </c>
     </row>
     <row r="267">
@@ -11922,10 +11122,7 @@
         <v>27.4525</v>
       </c>
       <c r="J267" t="n">
-        <v>34.915</v>
-      </c>
-      <c r="K267" t="n">
-        <v>3330.9125</v>
+        <v>2239.18</v>
       </c>
     </row>
     <row r="268">
@@ -11965,10 +11162,7 @@
         <v>19.8725</v>
       </c>
       <c r="J268" t="n">
-        <v>23.5325</v>
-      </c>
-      <c r="K268" t="n">
-        <v>1825.46</v>
+        <v>1206.665</v>
       </c>
     </row>
     <row r="269">
@@ -12008,10 +11202,7 @@
         <v>24.498</v>
       </c>
       <c r="J269" t="n">
-        <v>19.418</v>
-      </c>
-      <c r="K269" t="n">
-        <v>2075.546</v>
+        <v>1393.108</v>
       </c>
     </row>
     <row r="270">
@@ -12051,10 +11242,7 @@
         <v>31.7875</v>
       </c>
       <c r="J270" t="n">
-        <v>42.035</v>
-      </c>
-      <c r="K270" t="n">
-        <v>4129.31</v>
+        <v>2729.09</v>
       </c>
     </row>
     <row r="271">
@@ -12094,10 +11282,7 @@
         <v>22.936</v>
       </c>
       <c r="J271" t="n">
-        <v>-380428.282</v>
-      </c>
-      <c r="K271" t="n">
-        <v>2077.25</v>
+        <v>1496.528</v>
       </c>
     </row>
     <row r="272">
@@ -12137,10 +11322,7 @@
         <v>16.922</v>
       </c>
       <c r="J272" t="n">
-        <v>30.388</v>
-      </c>
-      <c r="K272" t="n">
-        <v>1779.412</v>
+        <v>1128.332</v>
       </c>
     </row>
     <row r="273">
@@ -12180,10 +11362,7 @@
         <v>14.4525</v>
       </c>
       <c r="J273" t="n">
-        <v>19.565</v>
-      </c>
-      <c r="K273" t="n">
-        <v>1349.2775</v>
+        <v>820.4275</v>
       </c>
     </row>
     <row r="274">
@@ -12223,10 +11402,7 @@
         <v>10.728</v>
       </c>
       <c r="J274" t="n">
-        <v>15.494</v>
-      </c>
-      <c r="K274" t="n">
-        <v>842.4</v>
+        <v>564.2360000000001</v>
       </c>
     </row>
     <row r="275">
@@ -12266,10 +11442,7 @@
         <v>17.186</v>
       </c>
       <c r="J275" t="n">
-        <v>28.144</v>
-      </c>
-      <c r="K275" t="n">
-        <v>1837.538</v>
+        <v>1114.776</v>
       </c>
     </row>
     <row r="276">
@@ -12309,10 +11482,7 @@
         <v>14.5075</v>
       </c>
       <c r="J276" t="n">
-        <v>23.685</v>
-      </c>
-      <c r="K276" t="n">
-        <v>1365.3925</v>
+        <v>877.3925</v>
       </c>
     </row>
     <row r="277">
@@ -12352,10 +11522,7 @@
         <v>15.366</v>
       </c>
       <c r="J277" t="n">
-        <v>26.534</v>
-      </c>
-      <c r="K277" t="n">
-        <v>1666.672</v>
+        <v>1027.026</v>
       </c>
     </row>
     <row r="278">
@@ -12395,10 +11562,7 @@
         <v>18.368</v>
       </c>
       <c r="J278" t="n">
-        <v>26.418</v>
-      </c>
-      <c r="K278" t="n">
-        <v>1917.688</v>
+        <v>1273.536</v>
       </c>
     </row>
     <row r="279">
@@ -12438,10 +11602,7 @@
         <v>17.0675</v>
       </c>
       <c r="J279" t="n">
-        <v>25.385</v>
-      </c>
-      <c r="K279" t="n">
-        <v>1530.6125</v>
+        <v>1001.5825</v>
       </c>
     </row>
     <row r="280">
@@ -12481,10 +11642,7 @@
         <v>15.42</v>
       </c>
       <c r="J280" t="n">
-        <v>26.72</v>
-      </c>
-      <c r="K280" t="n">
-        <v>1524.2725</v>
+        <v>977.79</v>
       </c>
     </row>
     <row r="281">
@@ -12524,10 +11682,7 @@
         <v>15.22666666666667</v>
       </c>
       <c r="J281" t="n">
-        <v>22.98</v>
-      </c>
-      <c r="K281" t="n">
-        <v>1472.896666666667</v>
+        <v>895.5566666666667</v>
       </c>
     </row>
     <row r="282">
@@ -12567,10 +11722,7 @@
         <v>16.432</v>
       </c>
       <c r="J282" t="n">
-        <v>30.334</v>
-      </c>
-      <c r="K282" t="n">
-        <v>1735.744</v>
+        <v>1100.554</v>
       </c>
     </row>
     <row r="283">
@@ -12610,10 +11762,7 @@
         <v>14.594</v>
       </c>
       <c r="J283" t="n">
-        <v>23.842</v>
-      </c>
-      <c r="K283" t="n">
-        <v>1349.324</v>
+        <v>860.0960000000001</v>
       </c>
     </row>
     <row r="284">
@@ -12653,10 +11802,7 @@
         <v>14.014</v>
       </c>
       <c r="J284" t="n">
-        <v>23.096</v>
-      </c>
-      <c r="K284" t="n">
-        <v>1328.182</v>
+        <v>821.766</v>
       </c>
     </row>
     <row r="285">
@@ -12696,10 +11842,7 @@
         <v>14.208</v>
       </c>
       <c r="J285" t="n">
-        <v>21.806</v>
-      </c>
-      <c r="K285" t="n">
-        <v>1296.182</v>
+        <v>827.086</v>
       </c>
     </row>
     <row r="286">
@@ -12739,10 +11882,7 @@
         <v>16.694</v>
       </c>
       <c r="J286" t="n">
-        <v>33.93</v>
-      </c>
-      <c r="K286" t="n">
-        <v>2108.858</v>
+        <v>1288.41</v>
       </c>
     </row>
     <row r="287">
@@ -12782,10 +11922,7 @@
         <v>13.52</v>
       </c>
       <c r="J287" t="n">
-        <v>22.92333333333334</v>
-      </c>
-      <c r="K287" t="n">
-        <v>1308.913333333333</v>
+        <v>786.2433333333333</v>
       </c>
     </row>
     <row r="288">
@@ -12825,10 +11962,7 @@
         <v>16.335</v>
       </c>
       <c r="J288" t="n">
-        <v>22.6775</v>
-      </c>
-      <c r="K288" t="n">
-        <v>1427.545</v>
+        <v>950.9375</v>
       </c>
     </row>
     <row r="289">
@@ -12868,10 +12002,7 @@
         <v>15.435</v>
       </c>
       <c r="J289" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="K289" t="n">
-        <v>1399.7</v>
+        <v>900.9675</v>
       </c>
     </row>
     <row r="290">
@@ -12911,10 +12042,7 @@
         <v>16.006</v>
       </c>
       <c r="J290" t="n">
-        <v>26.666</v>
-      </c>
-      <c r="K290" t="n">
-        <v>1740.548</v>
+        <v>1143.252</v>
       </c>
     </row>
     <row r="291">
@@ -12954,10 +12082,7 @@
         <v>15.434</v>
       </c>
       <c r="J291" t="n">
-        <v>30.072</v>
-      </c>
-      <c r="K291" t="n">
-        <v>1745.058</v>
+        <v>1081.476</v>
       </c>
     </row>
     <row r="292">
@@ -12997,10 +12122,7 @@
         <v>11.696</v>
       </c>
       <c r="J292" t="n">
-        <v>18.186</v>
-      </c>
-      <c r="K292" t="n">
-        <v>1106.412</v>
+        <v>693.42</v>
       </c>
     </row>
     <row r="293">
@@ -13040,10 +12162,7 @@
         <v>18.266</v>
       </c>
       <c r="J293" t="n">
-        <v>30.678</v>
-      </c>
-      <c r="K293" t="n">
-        <v>2026.734</v>
+        <v>1287.644</v>
       </c>
     </row>
     <row r="294">
@@ -13083,10 +12202,7 @@
         <v>10.58</v>
       </c>
       <c r="J294" t="n">
-        <v>36.97199999999999</v>
-      </c>
-      <c r="K294" t="n">
-        <v>1393.992</v>
+        <v>901.954</v>
       </c>
     </row>
     <row r="295">
@@ -13126,10 +12242,7 @@
         <v>14.5075</v>
       </c>
       <c r="J295" t="n">
-        <v>28.565</v>
-      </c>
-      <c r="K295" t="n">
-        <v>1543.015</v>
+        <v>1010.6825</v>
       </c>
     </row>
     <row r="296">
@@ -13169,10 +12282,7 @@
         <v>15.405</v>
       </c>
       <c r="J296" t="n">
-        <v>30.9275</v>
-      </c>
-      <c r="K296" t="n">
-        <v>1705.3375</v>
+        <v>1104.315</v>
       </c>
     </row>
     <row r="297">
@@ -13212,10 +12322,7 @@
         <v>14.268</v>
       </c>
       <c r="J297" t="n">
-        <v>34.878</v>
-      </c>
-      <c r="K297" t="n">
-        <v>1899.552</v>
+        <v>1194.816</v>
       </c>
     </row>
     <row r="298">
@@ -13255,10 +12362,7 @@
         <v>13.63</v>
       </c>
       <c r="J298" t="n">
-        <v>28.21250000000001</v>
-      </c>
-      <c r="K298" t="n">
-        <v>1450.11</v>
+        <v>905.6300000000001</v>
       </c>
     </row>
     <row r="299">
@@ -13298,10 +12402,7 @@
         <v>10.38</v>
       </c>
       <c r="J299" t="n">
-        <v>25.86333333333333</v>
-      </c>
-      <c r="K299" t="n">
-        <v>1169.08</v>
+        <v>790.1233333333334</v>
       </c>
     </row>
     <row r="300">
@@ -13341,10 +12442,7 @@
         <v>11.1825</v>
       </c>
       <c r="J300" t="n">
-        <v>26.8525</v>
-      </c>
-      <c r="K300" t="n">
-        <v>1236.3</v>
+        <v>783.5074999999999</v>
       </c>
     </row>
     <row r="301">
@@ -13384,10 +12482,7 @@
         <v>14.315</v>
       </c>
       <c r="J301" t="n">
-        <v>22.4325</v>
-      </c>
-      <c r="K301" t="n">
-        <v>1277.07</v>
+        <v>836.0274999999999</v>
       </c>
     </row>
     <row r="302">
@@ -13427,10 +12522,7 @@
         <v>13.4075</v>
       </c>
       <c r="J302" t="n">
-        <v>23.0225</v>
-      </c>
-      <c r="K302" t="n">
-        <v>1242.53</v>
+        <v>761</v>
       </c>
     </row>
     <row r="303">
@@ -13470,10 +12562,7 @@
         <v>9.484</v>
       </c>
       <c r="J303" t="n">
-        <v>24.756</v>
-      </c>
-      <c r="K303" t="n">
-        <v>1265.722</v>
+        <v>824.3979999999999</v>
       </c>
     </row>
     <row r="304">
@@ -13513,10 +12602,7 @@
         <v>10.065</v>
       </c>
       <c r="J304" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="K304" t="n">
-        <v>1051.0825</v>
+        <v>651.5125</v>
       </c>
     </row>
     <row r="305">
@@ -13556,10 +12642,7 @@
         <v>13.375</v>
       </c>
       <c r="J305" t="n">
-        <v>27.415</v>
-      </c>
-      <c r="K305" t="n">
-        <v>1434.17</v>
+        <v>925.4300000000001</v>
       </c>
     </row>
     <row r="306">
@@ -13599,10 +12682,7 @@
         <v>12.958</v>
       </c>
       <c r="J306" t="n">
-        <v>34.246</v>
-      </c>
-      <c r="K306" t="n">
-        <v>1525.57</v>
+        <v>948.818</v>
       </c>
     </row>
     <row r="307">
@@ -13642,10 +12722,7 @@
         <v>12.126</v>
       </c>
       <c r="J307" t="n">
-        <v>23.58</v>
-      </c>
-      <c r="K307" t="n">
-        <v>1281.308</v>
+        <v>849.3279999999999</v>
       </c>
     </row>
     <row r="308">
@@ -13685,10 +12762,7 @@
         <v>22.724</v>
       </c>
       <c r="J308" t="n">
-        <v>26.012</v>
-      </c>
-      <c r="K308" t="n">
-        <v>2978.108</v>
+        <v>1939.926</v>
       </c>
     </row>
     <row r="309">
@@ -13728,10 +12802,7 @@
         <v>21.725</v>
       </c>
       <c r="J309" t="n">
-        <v>26.5625</v>
-      </c>
-      <c r="K309" t="n">
-        <v>3197.0125</v>
+        <v>2016.01</v>
       </c>
     </row>
     <row r="310">
@@ -13771,10 +12842,7 @@
         <v>20.534</v>
       </c>
       <c r="J310" t="n">
-        <v>34.734</v>
-      </c>
-      <c r="K310" t="n">
-        <v>2782.79</v>
+        <v>1816.064</v>
       </c>
     </row>
     <row r="311">
@@ -13814,10 +12882,7 @@
         <v>20.048</v>
       </c>
       <c r="J311" t="n">
-        <v>21.036</v>
-      </c>
-      <c r="K311" t="n">
-        <v>2368.044</v>
+        <v>1591.07</v>
       </c>
     </row>
     <row r="312">
@@ -13857,10 +12922,7 @@
         <v>25.334</v>
       </c>
       <c r="J312" t="n">
-        <v>29.42000000000001</v>
-      </c>
-      <c r="K312" t="n">
-        <v>3416.756</v>
+        <v>2158.916</v>
       </c>
     </row>
     <row r="313">
@@ -13900,10 +12962,7 @@
         <v>23.46</v>
       </c>
       <c r="J313" t="n">
-        <v>30.06</v>
-      </c>
-      <c r="K313" t="n">
-        <v>2926.7475</v>
+        <v>2054.4225</v>
       </c>
     </row>
     <row r="314">
@@ -13943,10 +13002,7 @@
         <v>16.974</v>
       </c>
       <c r="J314" t="n">
-        <v>30.618</v>
-      </c>
-      <c r="K314" t="n">
-        <v>2875.666</v>
+        <v>1867.15</v>
       </c>
     </row>
     <row r="315">
@@ -13986,10 +13042,7 @@
         <v>25.06</v>
       </c>
       <c r="J315" t="n">
-        <v>34.2625</v>
-      </c>
-      <c r="K315" t="n">
-        <v>3644.545</v>
+        <v>2298.78</v>
       </c>
     </row>
     <row r="316">
@@ -14029,10 +13082,7 @@
         <v>16.022</v>
       </c>
       <c r="J316" t="n">
-        <v>25.836</v>
-      </c>
-      <c r="K316" t="n">
-        <v>2032.01</v>
+        <v>1335.682</v>
       </c>
     </row>
     <row r="317">
@@ -14072,10 +13122,7 @@
         <v>15.7775</v>
       </c>
       <c r="J317" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="K317" t="n">
-        <v>2523.845</v>
+        <v>1586.655</v>
       </c>
     </row>
     <row r="318">
@@ -14115,10 +13162,7 @@
         <v>20.62</v>
       </c>
       <c r="J318" t="n">
-        <v>29.4875</v>
-      </c>
-      <c r="K318" t="n">
-        <v>2661.12</v>
+        <v>1727.8575</v>
       </c>
     </row>
     <row r="319">
@@ -14158,10 +13202,7 @@
         <v>19.7125</v>
       </c>
       <c r="J319" t="n">
-        <v>47.20249999999999</v>
-      </c>
-      <c r="K319" t="n">
-        <v>2958.67</v>
+        <v>1936.5875</v>
       </c>
     </row>
     <row r="320">
@@ -14201,10 +13242,7 @@
         <v>22.3475</v>
       </c>
       <c r="J320" t="n">
-        <v>28.29</v>
-      </c>
-      <c r="K320" t="n">
-        <v>2639.295</v>
+        <v>1739.1325</v>
       </c>
     </row>
     <row r="321">
@@ -14244,10 +13282,7 @@
         <v>19.188</v>
       </c>
       <c r="J321" t="n">
-        <v>28.216</v>
-      </c>
-      <c r="K321" t="n">
-        <v>2850.962</v>
+        <v>1882.81</v>
       </c>
     </row>
     <row r="322">
@@ -14287,10 +13322,7 @@
         <v>16.71</v>
       </c>
       <c r="J322" t="n">
-        <v>1154342.284</v>
-      </c>
-      <c r="K322" t="n">
-        <v>3011.448</v>
+        <v>1832.388</v>
       </c>
     </row>
     <row r="323">
@@ -14330,10 +13362,7 @@
         <v>15.44333333333333</v>
       </c>
       <c r="J323" t="n">
-        <v>19.53333333333333</v>
-      </c>
-      <c r="K323" t="n">
-        <v>1945.153333333333</v>
+        <v>1287.83</v>
       </c>
     </row>
     <row r="324">
@@ -14373,10 +13402,7 @@
         <v>17.738</v>
       </c>
       <c r="J324" t="n">
-        <v>25.404</v>
-      </c>
-      <c r="K324" t="n">
-        <v>2386.084</v>
+        <v>1538.556</v>
       </c>
     </row>
     <row r="325">
@@ -14416,10 +13442,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="J325" t="n">
-        <v>28.74</v>
-      </c>
-      <c r="K325" t="n">
-        <v>2812.133333333333</v>
+        <v>1839.273333333333</v>
       </c>
     </row>
   </sheetData>
